--- a/加密解密.xlsx
+++ b/加密解密.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base64" sheetId="1" r:id="rId1"/>
+    <sheet name="常见的加密解密" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="106">
   <si>
     <t>/</t>
   </si>
@@ -290,13 +291,70 @@
   </si>
   <si>
     <t>字符</t>
+  </si>
+  <si>
+    <t>加密方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sha128加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可解密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以解密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可解密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要知道加密类型是base64，可通过base64解密程序解密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要知道异或的值，再次异或该值，可得到加密钱的value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密后的特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位或者16位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度是3的倍数
+只含有65种字符，大写的A至Z，小写的a至z,数字0到9，以及3种符号+/ =，=最多两个，且在末尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +381,15 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -372,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -381,14 +448,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,7 +770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -708,28 +782,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>90</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -845,25 +919,25 @@
       <c r="K3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="S3" s="3"/>
@@ -900,53 +974,53 @@
       <c r="K4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>100110</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>110011</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <v>100101</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>101110</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
     </row>
     <row r="5" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -976,53 +1050,53 @@
       <c r="K5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1052,34 +1126,34 @@
       <c r="K6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="5" t="s">
         <v>42</v>
       </c>
       <c r="V6" s="3"/>
@@ -1113,26 +1187,26 @@
       <c r="K7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4" t="s">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4" t="s">
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1159,22 +1233,22 @@
       <c r="H8" s="1">
         <v>54</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:38" ht="14.25" x14ac:dyDescent="0.2">
@@ -1422,4 +1496,114 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>